--- a/data/georgia_census/racha/lentexi/education_graduates.xlsx
+++ b/data/georgia_census/racha/lentexi/education_graduates.xlsx
@@ -1856,13 +1856,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{776154A1-68DE-4671-B88D-7CB38ACF5CFD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB9C6A1C-6E88-44E2-A8D5-ABE13275B70B}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78F4D4CA-558E-4636-A4C4-A6B50A5242D9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6EB83C8-135C-4D60-9D96-1DABE9AB1998}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F1B1E81-A536-48E9-B088-657B1275D35D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A2C472D-CE32-4DDD-847E-B8A7BE794F9C}"/>
 </file>